--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2675.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2675.xlsx
@@ -354,7 +354,7 @@
         <v>2.421449535080298</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.329693075593366</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2675.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2675.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160765631862124</v>
+        <v>1.0316002368927</v>
       </c>
       <c r="B1">
-        <v>2.421449535080298</v>
+        <v>1.179243683815002</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.48165762424469</v>
       </c>
       <c r="D1">
-        <v>2.329693075593366</v>
+        <v>3.033771753311157</v>
       </c>
       <c r="E1">
-        <v>1.211795744933435</v>
+        <v>4.281867027282715</v>
       </c>
     </row>
   </sheetData>
